--- a/PacificHake/Data/2019PacificHake.xlsx
+++ b/PacificHake/Data/2019PacificHake.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="7500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="7500" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="509">
   <si>
     <t>Number</t>
   </si>
@@ -30388,7 +30388,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45152,7 +45152,7 @@
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45257,13 +45257,19 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.4</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -45304,13 +45310,19 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -45358,7 +45370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -47572,8 +47584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DU70"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60487,15 +60499,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH55"/>
+  <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>294</v>
       </c>
@@ -60568,38 +60580,8 @@
       <c r="X1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>503</v>
       </c>
@@ -60673,7 +60655,7 @@
         <v>62535.8</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>503</v>
       </c>
@@ -60747,7 +60729,7 @@
         <v>56773</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>503</v>
       </c>
@@ -60821,7 +60803,7 @@
         <v>49840.5</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>503</v>
       </c>
@@ -60895,7 +60877,7 @@
         <v>43447.1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>503</v>
       </c>
@@ -60969,7 +60951,7 @@
         <v>35294.699999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>503</v>
       </c>
@@ -61043,7 +61025,7 @@
         <v>28976.5</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>503</v>
       </c>
@@ -61117,7 +61099,7 @@
         <v>25280.2</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>503</v>
       </c>
@@ -61191,7 +61173,7 @@
         <v>22203.599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>503</v>
       </c>
@@ -61265,7 +61247,7 @@
         <v>18921.2</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>503</v>
       </c>
@@ -61339,7 +61321,7 @@
         <v>15988</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>503</v>
       </c>
@@ -61413,7 +61395,7 @@
         <v>13729.1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>503</v>
       </c>
@@ -61487,7 +61469,7 @@
         <v>12064.2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>503</v>
       </c>
@@ -61561,7 +61543,7 @@
         <v>10790.5</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>503</v>
       </c>
@@ -61635,7 +61617,7 @@
         <v>9631.66</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>503</v>
       </c>

--- a/PacificHake/Data/2019PacificHake.xlsx
+++ b/PacificHake/Data/2019PacificHake.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="7500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="7500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="507">
   <si>
     <t>Number</t>
   </si>
@@ -543,9 +543,6 @@
   </si>
   <si>
     <t>Weight1_Numbers2</t>
-  </si>
-  <si>
-    <t>Pollock_survey_1_shelikof_acoustic</t>
   </si>
   <si>
     <t>Year</t>
@@ -1550,9 +1547,6 @@
     <t>Acoustic_survey</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Hake</t>
   </si>
   <si>
@@ -2882,97 +2876,97 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -4344,7 +4338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI271"/>
   <sheetViews>
-    <sheetView topLeftCell="B201" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F225" sqref="F225"/>
     </sheetView>
   </sheetViews>
@@ -4355,10 +4349,10 @@
   <sheetData>
     <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
@@ -4367,102 +4361,102 @@
         <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4539,7 +4533,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4616,7 +4610,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4693,7 +4687,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4770,7 +4764,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4847,7 +4841,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4924,7 +4918,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5001,7 +4995,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5078,7 +5072,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5155,7 +5149,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5232,7 +5226,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5309,7 +5303,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5386,7 +5380,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5463,7 +5457,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -5540,7 +5534,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5617,7 +5611,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5694,7 +5688,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -5771,7 +5765,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5848,7 +5842,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -5925,7 +5919,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -6002,7 +5996,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -6079,7 +6073,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -6156,7 +6150,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -6233,7 +6227,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6310,7 +6304,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6387,7 +6381,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -6464,7 +6458,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -6541,7 +6535,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -6618,7 +6612,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -6695,7 +6689,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -6772,7 +6766,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -6849,7 +6843,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -6926,7 +6920,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -7003,7 +6997,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -7080,7 +7074,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -7157,7 +7151,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -7234,7 +7228,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -7311,7 +7305,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -7388,7 +7382,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -7465,7 +7459,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -7542,7 +7536,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -7619,7 +7613,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -7696,7 +7690,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -7773,7 +7767,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -7850,7 +7844,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -7927,7 +7921,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -8004,7 +7998,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -8081,7 +8075,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -8158,7 +8152,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8235,7 +8229,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -8312,7 +8306,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -8389,7 +8383,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8466,7 +8460,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -8543,7 +8537,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -8620,7 +8614,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -8697,7 +8691,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -8774,7 +8768,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -8851,7 +8845,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -8928,7 +8922,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -9005,7 +8999,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -9082,7 +9076,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -9159,7 +9153,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -9236,7 +9230,7 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -9313,7 +9307,7 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -9390,7 +9384,7 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -9467,7 +9461,7 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -9544,7 +9538,7 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -9621,7 +9615,7 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -9698,7 +9692,7 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -9775,7 +9769,7 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -9852,7 +9846,7 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -9929,7 +9923,7 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -10006,7 +10000,7 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -10083,7 +10077,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -10160,7 +10154,7 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -10237,7 +10231,7 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -10314,7 +10308,7 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -10391,7 +10385,7 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -10468,7 +10462,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -10545,7 +10539,7 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -10622,7 +10616,7 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -10699,7 +10693,7 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -10776,7 +10770,7 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -10853,7 +10847,7 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -10930,7 +10924,7 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -11007,7 +11001,7 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -11084,7 +11078,7 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -11161,7 +11155,7 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -11238,7 +11232,7 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -11315,7 +11309,7 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -11392,7 +11386,7 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -11469,7 +11463,7 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -11546,7 +11540,7 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -11623,7 +11617,7 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -11700,7 +11694,7 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -11777,7 +11771,7 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -11854,7 +11848,7 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -11931,7 +11925,7 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -12008,7 +12002,7 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -12085,7 +12079,7 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -12162,7 +12156,7 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -12239,7 +12233,7 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -12316,7 +12310,7 @@
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -12393,7 +12387,7 @@
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -12470,7 +12464,7 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -12547,7 +12541,7 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -12624,7 +12618,7 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -12701,7 +12695,7 @@
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -12781,7 +12775,7 @@
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B110">
         <v>3</v>
@@ -12858,7 +12852,7 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B111">
         <v>3</v>
@@ -12935,7 +12929,7 @@
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B112">
         <v>3</v>
@@ -13012,7 +13006,7 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B113">
         <v>3</v>
@@ -13089,7 +13083,7 @@
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -13166,7 +13160,7 @@
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -13243,7 +13237,7 @@
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B116">
         <v>3</v>
@@ -13320,7 +13314,7 @@
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B117">
         <v>3</v>
@@ -13397,7 +13391,7 @@
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -13474,7 +13468,7 @@
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B119">
         <v>3</v>
@@ -13551,7 +13545,7 @@
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B120">
         <v>3</v>
@@ -13628,7 +13622,7 @@
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -13705,7 +13699,7 @@
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B122">
         <v>3</v>
@@ -13782,7 +13776,7 @@
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B123">
         <v>3</v>
@@ -13859,7 +13853,7 @@
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B124">
         <v>3</v>
@@ -13936,7 +13930,7 @@
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -14013,7 +14007,7 @@
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B126">
         <v>3</v>
@@ -14090,7 +14084,7 @@
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B127">
         <v>3</v>
@@ -14167,7 +14161,7 @@
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B128">
         <v>3</v>
@@ -14244,7 +14238,7 @@
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B129">
         <v>3</v>
@@ -14321,7 +14315,7 @@
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B130">
         <v>3</v>
@@ -14398,7 +14392,7 @@
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B131">
         <v>3</v>
@@ -14475,7 +14469,7 @@
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B132">
         <v>3</v>
@@ -14552,7 +14546,7 @@
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B133">
         <v>3</v>
@@ -14629,7 +14623,7 @@
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -14706,7 +14700,7 @@
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -14783,7 +14777,7 @@
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B136">
         <v>3</v>
@@ -14860,7 +14854,7 @@
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B137">
         <v>3</v>
@@ -14937,7 +14931,7 @@
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B138">
         <v>3</v>
@@ -15014,7 +15008,7 @@
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B139">
         <v>3</v>
@@ -15091,7 +15085,7 @@
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B140">
         <v>3</v>
@@ -15168,7 +15162,7 @@
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B141">
         <v>3</v>
@@ -15245,7 +15239,7 @@
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B142">
         <v>3</v>
@@ -15322,7 +15316,7 @@
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B143">
         <v>3</v>
@@ -15399,7 +15393,7 @@
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B144">
         <v>3</v>
@@ -15476,7 +15470,7 @@
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B145">
         <v>3</v>
@@ -15553,7 +15547,7 @@
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B146">
         <v>3</v>
@@ -15630,7 +15624,7 @@
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B147">
         <v>3</v>
@@ -15707,7 +15701,7 @@
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B148">
         <v>3</v>
@@ -15784,7 +15778,7 @@
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B149">
         <v>3</v>
@@ -15861,7 +15855,7 @@
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B150">
         <v>3</v>
@@ -15938,7 +15932,7 @@
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B151">
         <v>3</v>
@@ -16015,7 +16009,7 @@
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B152">
         <v>3</v>
@@ -16092,7 +16086,7 @@
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B153">
         <v>3</v>
@@ -16169,7 +16163,7 @@
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B154">
         <v>3</v>
@@ -16246,7 +16240,7 @@
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B155">
         <v>3</v>
@@ -16323,7 +16317,7 @@
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B156">
         <v>3</v>
@@ -16400,7 +16394,7 @@
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B157">
         <v>3</v>
@@ -16477,7 +16471,7 @@
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B158">
         <v>3</v>
@@ -16554,7 +16548,7 @@
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B159">
         <v>3</v>
@@ -16631,7 +16625,7 @@
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B160">
         <v>3</v>
@@ -16708,7 +16702,7 @@
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B161">
         <v>3</v>
@@ -16785,7 +16779,7 @@
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B162">
         <v>3</v>
@@ -16862,7 +16856,7 @@
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B163">
         <v>3</v>
@@ -16939,7 +16933,7 @@
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -17016,7 +17010,7 @@
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -17093,7 +17087,7 @@
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B166">
         <v>4</v>
@@ -17170,7 +17164,7 @@
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B167">
         <v>4</v>
@@ -17247,7 +17241,7 @@
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B168">
         <v>4</v>
@@ -17324,7 +17318,7 @@
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -17401,7 +17395,7 @@
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B170">
         <v>4</v>
@@ -17478,7 +17472,7 @@
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B171">
         <v>4</v>
@@ -17555,7 +17549,7 @@
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B172">
         <v>4</v>
@@ -17632,7 +17626,7 @@
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B173">
         <v>4</v>
@@ -17709,7 +17703,7 @@
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B174">
         <v>4</v>
@@ -17786,7 +17780,7 @@
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -17863,7 +17857,7 @@
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B176">
         <v>4</v>
@@ -17940,7 +17934,7 @@
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B177">
         <v>4</v>
@@ -18017,7 +18011,7 @@
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B178">
         <v>4</v>
@@ -18094,7 +18088,7 @@
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B179">
         <v>4</v>
@@ -18171,7 +18165,7 @@
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B180">
         <v>4</v>
@@ -18248,7 +18242,7 @@
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -18325,7 +18319,7 @@
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B182">
         <v>4</v>
@@ -18402,7 +18396,7 @@
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B183">
         <v>4</v>
@@ -18479,7 +18473,7 @@
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B184">
         <v>4</v>
@@ -18556,7 +18550,7 @@
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B185">
         <v>4</v>
@@ -18633,7 +18627,7 @@
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B186">
         <v>4</v>
@@ -18710,7 +18704,7 @@
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B187">
         <v>4</v>
@@ -18787,7 +18781,7 @@
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B188">
         <v>4</v>
@@ -18864,7 +18858,7 @@
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B189">
         <v>4</v>
@@ -18941,7 +18935,7 @@
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B190">
         <v>4</v>
@@ -19018,7 +19012,7 @@
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B191">
         <v>4</v>
@@ -19095,7 +19089,7 @@
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B192">
         <v>4</v>
@@ -19172,7 +19166,7 @@
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B193">
         <v>4</v>
@@ -19249,7 +19243,7 @@
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B194">
         <v>4</v>
@@ -19326,7 +19320,7 @@
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B195">
         <v>4</v>
@@ -19403,7 +19397,7 @@
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B196">
         <v>4</v>
@@ -19480,7 +19474,7 @@
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B197">
         <v>4</v>
@@ -19557,7 +19551,7 @@
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B198">
         <v>4</v>
@@ -19634,7 +19628,7 @@
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B199">
         <v>4</v>
@@ -19711,7 +19705,7 @@
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B200">
         <v>4</v>
@@ -19788,7 +19782,7 @@
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B201">
         <v>4</v>
@@ -19865,7 +19859,7 @@
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B202">
         <v>4</v>
@@ -19942,7 +19936,7 @@
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B203">
         <v>4</v>
@@ -20019,7 +20013,7 @@
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B204">
         <v>4</v>
@@ -20096,7 +20090,7 @@
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B205">
         <v>4</v>
@@ -20173,7 +20167,7 @@
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B206">
         <v>4</v>
@@ -20250,7 +20244,7 @@
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B207">
         <v>4</v>
@@ -20327,7 +20321,7 @@
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B208">
         <v>4</v>
@@ -20404,7 +20398,7 @@
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B209">
         <v>4</v>
@@ -20481,7 +20475,7 @@
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B210">
         <v>4</v>
@@ -20558,7 +20552,7 @@
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B211">
         <v>4</v>
@@ -20635,7 +20629,7 @@
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B212">
         <v>4</v>
@@ -20712,7 +20706,7 @@
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B213">
         <v>4</v>
@@ -20789,7 +20783,7 @@
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B214">
         <v>4</v>
@@ -20866,7 +20860,7 @@
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B215">
         <v>4</v>
@@ -20943,7 +20937,7 @@
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B216">
         <v>4</v>
@@ -21020,7 +21014,7 @@
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B217">
         <v>4</v>
@@ -21097,7 +21091,7 @@
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B218">
         <v>5</v>
@@ -21174,7 +21168,7 @@
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B219">
         <v>5</v>
@@ -21251,7 +21245,7 @@
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B220">
         <v>5</v>
@@ -21328,7 +21322,7 @@
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B221">
         <v>5</v>
@@ -21405,7 +21399,7 @@
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B222">
         <v>5</v>
@@ -21482,7 +21476,7 @@
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B223">
         <v>5</v>
@@ -21559,7 +21553,7 @@
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B224">
         <v>5</v>
@@ -21636,7 +21630,7 @@
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B225">
         <v>5</v>
@@ -21713,7 +21707,7 @@
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B226">
         <v>5</v>
@@ -21790,7 +21784,7 @@
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B227">
         <v>5</v>
@@ -21867,7 +21861,7 @@
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B228">
         <v>5</v>
@@ -21944,7 +21938,7 @@
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B229">
         <v>5</v>
@@ -22021,7 +22015,7 @@
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B230">
         <v>5</v>
@@ -22098,7 +22092,7 @@
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B231">
         <v>5</v>
@@ -22175,7 +22169,7 @@
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B232">
         <v>5</v>
@@ -22252,7 +22246,7 @@
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B233">
         <v>5</v>
@@ -22329,7 +22323,7 @@
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B234">
         <v>5</v>
@@ -22406,7 +22400,7 @@
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B235">
         <v>5</v>
@@ -22483,7 +22477,7 @@
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B236">
         <v>5</v>
@@ -22560,7 +22554,7 @@
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B237">
         <v>5</v>
@@ -22637,7 +22631,7 @@
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B238">
         <v>5</v>
@@ -22714,7 +22708,7 @@
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B239">
         <v>5</v>
@@ -22791,7 +22785,7 @@
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B240">
         <v>5</v>
@@ -22868,7 +22862,7 @@
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B241">
         <v>5</v>
@@ -22945,7 +22939,7 @@
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B242">
         <v>5</v>
@@ -23022,7 +23016,7 @@
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B243">
         <v>5</v>
@@ -23099,7 +23093,7 @@
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B244">
         <v>5</v>
@@ -23176,7 +23170,7 @@
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B245">
         <v>5</v>
@@ -23253,7 +23247,7 @@
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B246">
         <v>5</v>
@@ -23330,7 +23324,7 @@
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B247">
         <v>5</v>
@@ -23407,7 +23401,7 @@
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B248">
         <v>5</v>
@@ -23484,7 +23478,7 @@
     </row>
     <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B249">
         <v>5</v>
@@ -23561,7 +23555,7 @@
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B250">
         <v>5</v>
@@ -23638,7 +23632,7 @@
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B251">
         <v>5</v>
@@ -23715,7 +23709,7 @@
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B252">
         <v>5</v>
@@ -23792,7 +23786,7 @@
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B253">
         <v>5</v>
@@ -23869,7 +23863,7 @@
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B254">
         <v>5</v>
@@ -23946,7 +23940,7 @@
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B255">
         <v>5</v>
@@ -24023,7 +24017,7 @@
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B256">
         <v>5</v>
@@ -24100,7 +24094,7 @@
     </row>
     <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B257">
         <v>5</v>
@@ -24177,7 +24171,7 @@
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B258">
         <v>5</v>
@@ -24254,7 +24248,7 @@
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B259">
         <v>5</v>
@@ -24331,7 +24325,7 @@
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B260">
         <v>5</v>
@@ -24408,7 +24402,7 @@
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B261">
         <v>5</v>
@@ -24485,7 +24479,7 @@
     </row>
     <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B262">
         <v>5</v>
@@ -24562,7 +24556,7 @@
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B263">
         <v>5</v>
@@ -24639,7 +24633,7 @@
     </row>
     <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B264">
         <v>5</v>
@@ -24716,7 +24710,7 @@
     </row>
     <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B265">
         <v>5</v>
@@ -24793,7 +24787,7 @@
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B266">
         <v>5</v>
@@ -24870,7 +24864,7 @@
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B267">
         <v>5</v>
@@ -24947,7 +24941,7 @@
     </row>
     <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B268">
         <v>5</v>
@@ -25024,7 +25018,7 @@
     </row>
     <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B269">
         <v>5</v>
@@ -25101,7 +25095,7 @@
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B270">
         <v>5</v>
@@ -25178,7 +25172,7 @@
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B271">
         <v>5</v>
@@ -25273,94 +25267,94 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -25448,94 +25442,94 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -25626,94 +25620,94 @@
         <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -25805,94 +25799,94 @@
         <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -25951,10 +25945,10 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -25988,7 +25982,7 @@
         <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -26102,10 +26096,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -26451,97 +26445,97 @@
         <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="Y1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -30387,8 +30381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30398,7 +30392,7 @@
         <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -30571,31 +30565,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -33515,31 +33509,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -45151,8 +45145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45242,7 +45236,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -45260,7 +45254,7 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -45295,7 +45289,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -45313,7 +45307,7 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -45371,10 +45365,13 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -45387,27 +45384,27 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -45436,7 +45433,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -45465,7 +45462,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -45494,7 +45491,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -45523,7 +45520,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -45552,7 +45549,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -45581,7 +45578,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -45610,7 +45607,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -45639,7 +45636,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -45668,7 +45665,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -45697,7 +45694,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -45726,7 +45723,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -45755,7 +45752,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -45784,7 +45781,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -45813,7 +45810,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -45842,7 +45839,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -45871,7 +45868,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -45900,7 +45897,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -45929,7 +45926,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -45958,7 +45955,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -45987,7 +45984,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -46016,7 +46013,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -46045,7 +46042,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -46074,7 +46071,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -46103,7 +46100,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -46156,24 +46153,24 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -46199,7 +46196,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -46225,7 +46222,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -46251,7 +46248,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -46277,7 +46274,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -46303,7 +46300,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -46329,7 +46326,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -46355,7 +46352,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -46381,7 +46378,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -46407,7 +46404,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -46433,7 +46430,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -46459,7 +46456,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -46485,7 +46482,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -46511,7 +46508,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -46537,7 +46534,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -46563,7 +46560,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -46589,7 +46586,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -46615,7 +46612,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -46641,7 +46638,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -46667,7 +46664,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -46693,7 +46690,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -46719,7 +46716,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -46745,7 +46742,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -46771,7 +46768,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -46797,7 +46794,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -46823,7 +46820,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -46849,7 +46846,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -46875,7 +46872,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -46901,7 +46898,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -46927,7 +46924,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -46953,7 +46950,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -46979,7 +46976,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -47005,7 +47002,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -47031,7 +47028,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -47057,7 +47054,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -47083,7 +47080,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -47109,7 +47106,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -47135,7 +47132,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -47161,7 +47158,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -47187,7 +47184,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -47213,7 +47210,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -47239,7 +47236,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -47265,7 +47262,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -47291,7 +47288,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -47317,7 +47314,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -47343,7 +47340,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -47369,7 +47366,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -47395,7 +47392,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -47421,7 +47418,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -47447,7 +47444,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -47473,7 +47470,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -47499,7 +47496,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -47525,7 +47522,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -47551,7 +47548,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -47585,7 +47582,7 @@
   <dimension ref="A1:DU70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47604,372 +47601,372 @@
         <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -48040,7 +48037,7 @@
     </row>
     <row r="3" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -48111,7 +48108,7 @@
     </row>
     <row r="4" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -48182,7 +48179,7 @@
     </row>
     <row r="5" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -48253,7 +48250,7 @@
     </row>
     <row r="6" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -48324,7 +48321,7 @@
     </row>
     <row r="7" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -48395,7 +48392,7 @@
     </row>
     <row r="8" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -48466,7 +48463,7 @@
     </row>
     <row r="9" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -48537,7 +48534,7 @@
     </row>
     <row r="10" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -48608,7 +48605,7 @@
     </row>
     <row r="11" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -48679,7 +48676,7 @@
     </row>
     <row r="12" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -48750,7 +48747,7 @@
     </row>
     <row r="13" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -48821,7 +48818,7 @@
     </row>
     <row r="14" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -48859,34 +48856,40 @@
       <c r="M14">
         <v>31.31</v>
       </c>
+      <c r="N14">
+        <v>2.5</v>
+      </c>
       <c r="O14">
-        <v>2.5</v>
+        <v>3.18</v>
       </c>
       <c r="P14">
-        <v>3.18</v>
+        <v>2.68</v>
       </c>
       <c r="Q14">
-        <v>2.68</v>
+        <v>16.12</v>
       </c>
       <c r="R14">
-        <v>16.12</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="S14">
-        <v>2.2799999999999998</v>
+        <v>0.96</v>
       </c>
       <c r="T14">
-        <v>0.96</v>
+        <v>0.36</v>
       </c>
       <c r="U14">
-        <v>0.36</v>
-      </c>
-      <c r="V14" t="s">
-        <v>502</v>
+        <v>0.38</v>
+      </c>
+      <c r="V14">
+        <v>0.47</v>
+      </c>
+      <c r="W14">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -48957,7 +48960,7 @@
     </row>
     <row r="16" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -49028,7 +49031,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -49099,7 +49102,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -49170,7 +49173,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -49241,7 +49244,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -49312,7 +49315,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -49383,7 +49386,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -49454,7 +49457,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -49525,7 +49528,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -49596,7 +49599,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -49667,7 +49670,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -49738,7 +49741,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -49809,7 +49812,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -49880,7 +49883,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -49951,7 +49954,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -50022,7 +50025,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -50093,7 +50096,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -50164,7 +50167,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -50235,7 +50238,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -50306,7 +50309,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -50377,7 +50380,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -50448,7 +50451,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -50519,7 +50522,7 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -50590,7 +50593,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -50661,7 +50664,7 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -50732,7 +50735,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -50803,7 +50806,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -50874,7 +50877,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -50945,7 +50948,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -51016,7 +51019,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -51087,7 +51090,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -51158,7 +51161,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -51229,7 +51232,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -51300,7 +51303,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -51371,7 +51374,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -51442,7 +51445,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -51513,7 +51516,7 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -51584,7 +51587,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -51655,7 +51658,7 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -51726,7 +51729,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -51797,7 +51800,7 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -51868,7 +51871,7 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -51939,7 +51942,7 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -52010,7 +52013,7 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -52093,8 +52096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52113,72 +52116,72 @@
         <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -52255,7 +52258,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -52332,7 +52335,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -52409,7 +52412,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -52486,7 +52489,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -52563,7 +52566,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -52640,7 +52643,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -52717,7 +52720,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -52794,7 +52797,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -52871,7 +52874,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -52948,7 +52951,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -53025,7 +53028,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -53102,7 +53105,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -53179,7 +53182,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -53256,7 +53259,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -53333,7 +53336,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -53410,7 +53413,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -53487,7 +53490,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -53564,7 +53567,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -53641,7 +53644,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -53718,7 +53721,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -53795,7 +53798,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -53872,7 +53875,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -53949,7 +53952,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -54026,7 +54029,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -54103,7 +54106,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -54180,7 +54183,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -54257,7 +54260,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -54334,7 +54337,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -54411,7 +54414,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -54488,7 +54491,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -54565,7 +54568,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -54642,7 +54645,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -54719,7 +54722,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -54796,7 +54799,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -54873,7 +54876,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -54950,7 +54953,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -55027,7 +55030,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -55104,7 +55107,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -55181,7 +55184,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -55258,7 +55261,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -55335,7 +55338,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -55412,7 +55415,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -55489,7 +55492,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -55566,7 +55569,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -55643,7 +55646,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -55720,7 +55723,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -55797,7 +55800,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -55874,7 +55877,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -55951,7 +55954,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -56028,7 +56031,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -56105,7 +56108,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -56182,7 +56185,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -56259,7 +56262,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -56336,7 +56339,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -56413,7 +56416,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -56490,7 +56493,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -56567,7 +56570,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -56644,7 +56647,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -56721,7 +56724,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -56798,7 +56801,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -56875,7 +56878,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -56952,7 +56955,7 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -57029,7 +57032,7 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -57106,7 +57109,7 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -57183,7 +57186,7 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -57260,7 +57263,7 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -57337,7 +57340,7 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -57414,7 +57417,7 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -57491,7 +57494,7 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -57568,7 +57571,7 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -57645,7 +57648,7 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -57722,7 +57725,7 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -57799,7 +57802,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -57876,7 +57879,7 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -57953,7 +57956,7 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -58030,7 +58033,7 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -58107,7 +58110,7 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -58184,7 +58187,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -58261,7 +58264,7 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -58338,7 +58341,7 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -58415,7 +58418,7 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -58492,7 +58495,7 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -58569,7 +58572,7 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -58646,7 +58649,7 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -58723,7 +58726,7 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -58800,7 +58803,7 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -58877,7 +58880,7 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -58954,7 +58957,7 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -59031,7 +59034,7 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -59108,7 +59111,7 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -59185,7 +59188,7 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -59262,7 +59265,7 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -59339,7 +59342,7 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -59416,7 +59419,7 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -59493,7 +59496,7 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -59570,7 +59573,7 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -59647,7 +59650,7 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -59724,7 +59727,7 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -59801,7 +59804,7 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -59878,7 +59881,7 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -59955,7 +59958,7 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -60032,7 +60035,7 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -60109,7 +60112,7 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -60186,7 +60189,7 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -60263,7 +60266,7 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -60340,7 +60343,7 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -60417,7 +60420,7 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -60501,7 +60504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
@@ -60509,7 +60512,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
@@ -60518,72 +60521,72 @@
         <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -60657,7 +60660,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -60731,7 +60734,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -60805,7 +60808,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -60879,7 +60882,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -60953,7 +60956,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -61027,7 +61030,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -61101,7 +61104,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -61175,7 +61178,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -61249,7 +61252,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -61323,7 +61326,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -61397,7 +61400,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -61471,7 +61474,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -61545,7 +61548,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -61619,7 +61622,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -61693,7 +61696,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -61767,7 +61770,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -61841,7 +61844,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -61915,7 +61918,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -61989,7 +61992,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -62063,7 +62066,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -62137,7 +62140,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -62211,7 +62214,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -62285,7 +62288,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -62359,7 +62362,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -62433,7 +62436,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -62507,7 +62510,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -62581,7 +62584,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -62655,7 +62658,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -62729,7 +62732,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -62803,7 +62806,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -62877,7 +62880,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -62951,7 +62954,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -63025,7 +63028,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -63099,7 +63102,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -63173,7 +63176,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -63247,7 +63250,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -63321,7 +63324,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -63395,7 +63398,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -63469,7 +63472,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -63543,7 +63546,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -63617,7 +63620,7 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -63691,7 +63694,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -63765,7 +63768,7 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -63839,7 +63842,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -63913,7 +63916,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -63987,7 +63990,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -64061,7 +64064,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -64135,7 +64138,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -64209,7 +64212,7 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -64283,7 +64286,7 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -64357,7 +64360,7 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -64431,7 +64434,7 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -64505,7 +64508,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -64594,7 +64597,7 @@
   <sheetData>
     <row r="1" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>67</v>
@@ -64606,363 +64609,363 @@
         <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -65330,7 +65333,7 @@
     </row>
     <row r="3" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -65698,7 +65701,7 @@
     </row>
     <row r="4" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -66066,7 +66069,7 @@
     </row>
     <row r="5" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -66434,7 +66437,7 @@
     </row>
     <row r="6" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -66802,7 +66805,7 @@
     </row>
     <row r="7" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -67170,7 +67173,7 @@
     </row>
     <row r="8" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -67538,7 +67541,7 @@
     </row>
     <row r="9" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -67906,7 +67909,7 @@
     </row>
     <row r="10" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -68274,7 +68277,7 @@
     </row>
     <row r="11" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -68642,7 +68645,7 @@
     </row>
     <row r="12" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -68737,7 +68740,7 @@
     </row>
     <row r="13" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -68832,7 +68835,7 @@
     </row>
     <row r="14" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -68927,7 +68930,7 @@
     </row>
     <row r="15" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -69022,7 +69025,7 @@
     </row>
     <row r="16" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -69117,7 +69120,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -69212,7 +69215,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -69307,7 +69310,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -69402,7 +69405,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -69497,7 +69500,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B21">
         <v>1</v>
